--- a/biology/Botanique/Euglena/Euglena.xlsx
+++ b/biology/Botanique/Euglena/Euglena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euglena (les euglènes) est un genre commun d’algues vertes flagellées, typiques des Euglénophytes, et souvent présentes dans l’eau (le plus souvent de l'eau douce, mais il existe de rares espèces marines) riche en nutriments.
 Utilisant les chloroplastes (photosynthèse) pour se développer ou capable d'utiliser directement la matière organique, on considère l'euglène comme étant un organisme mixotrophe.
 La longueur des cellules varie de 20 à 300 µm ; elles sont typiquement cylindriques, ovales, ou fusiformes avec une apparence de flagelle unique. En effet, contrairement à de nombreuses descriptions, c'est un Bikonta , mais dont le très court second flagelle (7 sur la figure) ne sort pas du réservoir. Le nom Euglena dérive des mots grecs eus et  glêne signifiant bon œil et se référant au capteur (stigma) jouant le rôle d'un œil rudimentaire (9 sur la figure).
 Les euglènes se divisent par division longitudinale de la cellule. Il n'y a pas de reproduction sexuée connue.
-Il a été décrit plus de 100 espèces d’Euglena. Marin et al. (2003) ont passé en revue le genre afin d'en faire un groupe monophylétique, par déplacement de diverses espèces à pellicules rigides vers le genre Lepocinclis et par l'incorporation de diverses espèces sans chloroplaste, précédemment classifiées en tant qu'Astasia et Khawkinea[1].
+Il a été décrit plus de 100 espèces d’Euglena. Marin et al. (2003) ont passé en revue le genre afin d'en faire un groupe monophylétique, par déplacement de diverses espèces à pellicules rigides vers le genre Lepocinclis et par l'incorporation de diverses espèces sans chloroplaste, précédemment classifiées en tant qu'Astasia et Khawkinea.
 Les euglènes possèdent des chloroplastes ramifiés (dits en forme d'étoile) permettant la photosynthèse, de couleur vert clair, bien que certaines espèces soient incolores. Une expérience démontre en effet que les euglènes peuvent perdre ces chloroplastes dans certaines conditions. Si on ajoute un antibiotique comme la streptomycine au milieu de culture des euglènes, la division des chloroplastes est inhibée alors que la division cellulaire n'est pas affectée. Au cours des divisions successives des euglènes, les chloroplastes sont répartis dans les cellules filles, mais au fil des générations, il y en a de moins en moins, ceux-ci ne pouvant plus se diviser. Au bout d'un certain nombre de divisions cellulaires, les cellules filles ne possèdent plus de chloroplastes. Elles deviennent donc hétérotrophes et se comportent comme des cellules animales.
-Des applications humaines existent notamment en termes de biocarburant. En 2015, à but d'expérimentation, l'entreprise japonaise Euglena (entreprise) fournit quotidiennement un bus qui effectue 88 km par jour, consommant un carburant composé de carburant standard et de 1 % d'euglena[2].
+Des applications humaines existent notamment en termes de biocarburant. En 2015, à but d'expérimentation, l'entreprise japonaise Euglena (entreprise) fournit quotidiennement un bus qui effectue 88 km par jour, consommant un carburant composé de carburant standard et de 1 % d'euglena.
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (22 nov. 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (22 nov. 2011) :
 Euglena acauda (Swirenko) Popowa
 Euglena acaulis J.Massart (Sans vérification)
 Euglena acusformis J.Schiller (Sans vérification)
@@ -802,7 +816,7 @@
 Euglena wangii Chu
 Euglena zocchioi Skvortzov &amp; Noda (Sans vérification)
 Euglena zonalis H.J.Carter (Sans vérification)
-Selon World Register of Marine Species                               (22 nov. 2011)[4] :
+Selon World Register of Marine Species                               (22 nov. 2011) :
 Euglena acus Ehrenberg, 1830
 Euglena adhaerens Matvienko, 1938
 Euglena anabaena Mainx, 1926
@@ -844,7 +858,7 @@
 Euglena velata G.A. Klebs, 1883
 Euglena viridis (O.F.Müller) Ehrenberg, 1832
 Euglena ostendensis Kufferath, 1950
-Selon ITIS      (22 nov. 2011)[5] :
+Selon ITIS      (22 nov. 2011) :
 Euglena acus Ehrenberg
 Euglena agilis Carter, 1856
 Euglena alata Thompson
